--- a/srv/data/EI_bar.xlsx
+++ b/srv/data/EI_bar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/code/charts/srv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D8FD19-22AC-DE45-89A9-B8B78EEE1300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FCE75B-C2A7-0041-A2B6-95DFA7B1344C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="2900" windowWidth="27640" windowHeight="16940" xr2:uid="{B7073665-9EAB-904D-A8FB-5A1C0E6DB570}"/>
+    <workbookView xWindow="5580" yWindow="3500" windowWidth="27640" windowHeight="16940" xr2:uid="{1E3BBEAB-328D-E349-98D7-00FEC51926FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Petr Pavel</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Pavel Fischer</t>
-  </si>
-  <si>
-    <t>Marek Hilšer</t>
   </si>
   <si>
     <t>Ostatní</t>
@@ -418,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB42268-FF34-CB44-872D-A9AFAF830D4A}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091A400A-81BA-CA46-B287-84540830DB84}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -449,182 +446,161 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2">
+        <v>0.60431654676258995</v>
+      </c>
+      <c r="C2">
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.15827338129496402</v>
+      </c>
+      <c r="E2">
+        <v>1.4388489208633094E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.1366906474820144</v>
+      </c>
+      <c r="G2">
+        <v>2.1582733812949641E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.8776978417266189E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0.3724137931034483</v>
-      </c>
-      <c r="C2">
-        <v>1.3793103448275862E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.24827586206896551</v>
-      </c>
-      <c r="E2">
-        <v>6.8965517241379309E-3</v>
-      </c>
-      <c r="F2">
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="G2">
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H2">
-        <v>1.3793103448275862E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.20689655172413793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
       <c r="B3">
-        <v>5.7142857142857141E-2</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="C3">
-        <v>0.6071428571428571</v>
+        <v>0.76428571428571423</v>
       </c>
       <c r="D3">
-        <v>5.7142857142857141E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="E3">
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="F3">
-        <v>7.1428571428571426E-3</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="G3">
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="H3">
-        <v>7.1428571428571426E-3</v>
-      </c>
-      <c r="I3">
-        <v>0.23571428571428571</v>
+        <v>4.2857142857142858E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.63291139240506333</v>
+      </c>
+      <c r="C4">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="E4">
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.7974683544303799E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.7974683544303799E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.7974683544303799E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.34146341463414637</v>
-      </c>
-      <c r="C4">
-        <v>1.2195121951219513E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.31707317073170732</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>8.5365853658536592E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.878048780487805E-2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.1951219512195122</v>
+      <c r="B5">
+        <v>0.06</v>
+      </c>
+      <c r="C5">
+        <v>0.52</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.18</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <v>0.04</v>
+      </c>
+      <c r="H5">
+        <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="C5">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D5">
-        <v>6.1224489795918366E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F5">
-        <v>4.0816326530612242E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.2857142857142857</v>
+      <c r="B6">
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="C6">
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="D6">
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="E6">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.8627450980392163E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="H6">
+        <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="C6">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D6">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="E6">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="G6">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="H6">
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.39814814814814814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
       <c r="B7">
-        <v>8.2018927444794956E-2</v>
+        <v>3.272727272727273E-2</v>
       </c>
       <c r="C7">
-        <v>4.4164037854889593E-2</v>
+        <v>0.10181818181818182</v>
       </c>
       <c r="D7">
-        <v>9.7791798107255523E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="E7">
-        <v>3.4700315457413249E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="F7">
-        <v>1.5772870662460567E-2</v>
+        <v>1.4545454545454545E-2</v>
       </c>
       <c r="G7">
-        <v>9.4637223974763408E-3</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="H7">
-        <v>6.3091482649842269E-3</v>
-      </c>
-      <c r="I7">
-        <v>0.70977917981072558</v>
+        <v>0.81090909090909091</v>
       </c>
     </row>
   </sheetData>

--- a/srv/data/EI_bar.xlsx
+++ b/srv/data/EI_bar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/code/charts/srv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FCE75B-C2A7-0041-A2B6-95DFA7B1344C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A184B0DA-F7A8-BB4A-AFED-256AA5C6C042}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3500" windowWidth="27640" windowHeight="16940" xr2:uid="{1E3BBEAB-328D-E349-98D7-00FEC51926FB}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{76A78766-ABA9-A744-B4E7-AED4DE03BB57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,45 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Petr Pavel</t>
-  </si>
-  <si>
-    <t>Andrej Babiš</t>
-  </si>
-  <si>
-    <t>Danuše Nerudová</t>
-  </si>
-  <si>
-    <t>Jaroslav Bašta</t>
-  </si>
-  <si>
-    <t>Pavel Fischer</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>PETR PAVEL</t>
+  </si>
+  <si>
+    <t>ANDREJ BABIŠ</t>
+  </si>
+  <si>
+    <t>NEÚČAST</t>
+  </si>
+  <si>
+    <t>Voliči SPOLU</t>
+  </si>
+  <si>
+    <t>Voliči ANO</t>
+  </si>
+  <si>
+    <t>Voliči PirStan</t>
+  </si>
+  <si>
+    <t>Voliči SPD</t>
+  </si>
+  <si>
+    <t>Voliči ostatních stran</t>
   </si>
   <si>
     <t>Neúčast</t>
-  </si>
-  <si>
-    <t>Voliči SPOLU</t>
-  </si>
-  <si>
-    <t>Voliči ANO</t>
-  </si>
-  <si>
-    <t>Voliči PirStan</t>
-  </si>
-  <si>
-    <t>Voliči SPD</t>
-  </si>
-  <si>
-    <t>Voliči ostatních stran</t>
-  </si>
-  <si>
-    <t>Neúčastníci + prvovoliči</t>
   </si>
 </sst>
 </file>
@@ -415,16 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091A400A-81BA-CA46-B287-84540830DB84}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9E7797-9914-6E40-9AD3-348773881832}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -434,173 +422,89 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2">
+        <v>0.92517006802721091</v>
+      </c>
+      <c r="C2">
+        <v>3.4013605442176874E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.0816326530612242E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3">
+        <v>0.11724137931034483</v>
+      </c>
+      <c r="C3">
+        <v>0.78620689655172415</v>
+      </c>
+      <c r="D3">
+        <v>9.6551724137931033E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B4">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="C4">
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="C5">
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0.60431654676258995</v>
-      </c>
-      <c r="C2">
-        <v>3.5971223021582732E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.15827338129496402</v>
-      </c>
-      <c r="E2">
-        <v>1.4388489208633094E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.1366906474820144</v>
-      </c>
-      <c r="G2">
-        <v>2.1582733812949641E-2</v>
-      </c>
-      <c r="H2">
-        <v>2.8776978417266189E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B6">
+        <v>0.63551401869158874</v>
+      </c>
+      <c r="C6">
+        <v>0.23364485981308411</v>
+      </c>
+      <c r="D6">
+        <v>0.13084112149532709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="C3">
-        <v>0.76428571428571423</v>
-      </c>
-      <c r="D3">
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="H3">
-        <v>4.2857142857142858E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0.63291139240506333</v>
-      </c>
-      <c r="C4">
-        <v>2.5316455696202531E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.21518987341772153</v>
-      </c>
-      <c r="E4">
-        <v>1.2658227848101266E-2</v>
-      </c>
-      <c r="F4">
-        <v>3.7974683544303799E-2</v>
-      </c>
-      <c r="G4">
-        <v>3.7974683544303799E-2</v>
-      </c>
-      <c r="H4">
-        <v>3.7974683544303799E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.06</v>
-      </c>
-      <c r="C5">
-        <v>0.52</v>
-      </c>
-      <c r="D5">
-        <v>0.06</v>
-      </c>
-      <c r="E5">
-        <v>0.18</v>
-      </c>
-      <c r="F5">
-        <v>0.02</v>
-      </c>
-      <c r="G5">
-        <v>0.04</v>
-      </c>
-      <c r="H5">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.21568627450980393</v>
-      </c>
-      <c r="C6">
-        <v>0.20588235294117646</v>
-      </c>
-      <c r="D6">
-        <v>0.21568627450980393</v>
-      </c>
-      <c r="E6">
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="F6">
-        <v>6.8627450980392163E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="H6">
-        <v>0.11764705882352941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
       <c r="B7">
-        <v>3.272727272727273E-2</v>
+        <v>7.6655052264808357E-2</v>
       </c>
       <c r="C7">
-        <v>0.10181818181818182</v>
+        <v>0.22299651567944251</v>
       </c>
       <c r="D7">
-        <v>1.8181818181818181E-2</v>
-      </c>
-      <c r="E7">
-        <v>1.090909090909091E-2</v>
-      </c>
-      <c r="F7">
-        <v>1.4545454545454545E-2</v>
-      </c>
-      <c r="G7">
-        <v>1.090909090909091E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.81090909090909091</v>
+        <v>0.70034843205574915</v>
       </c>
     </row>
   </sheetData>
